--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H2">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.31936931933056</v>
+        <v>1.346579</v>
       </c>
       <c r="N2">
-        <v>1.31936931933056</v>
+        <v>4.039737</v>
       </c>
       <c r="O2">
-        <v>0.2631936452520749</v>
+        <v>0.2423357964611511</v>
       </c>
       <c r="P2">
-        <v>0.2631936452520749</v>
+        <v>0.2423357964611511</v>
       </c>
       <c r="Q2">
-        <v>256.807946172712</v>
+        <v>263.169190684231</v>
       </c>
       <c r="R2">
-        <v>256.807946172712</v>
+        <v>2368.522716158079</v>
       </c>
       <c r="S2">
-        <v>0.08191736380770445</v>
+        <v>0.07502090387784037</v>
       </c>
       <c r="T2">
-        <v>0.08191736380770445</v>
+        <v>0.07502090387784036</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H3">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.112087027602345</v>
+        <v>0.1192816666666667</v>
       </c>
       <c r="N3">
-        <v>0.112087027602345</v>
+        <v>0.357845</v>
       </c>
       <c r="O3">
-        <v>0.022359617544464</v>
+        <v>0.02146641058183753</v>
       </c>
       <c r="P3">
-        <v>0.022359617544464</v>
+        <v>0.02146641058183754</v>
       </c>
       <c r="Q3">
-        <v>21.81712044491648</v>
+        <v>23.31185892556833</v>
       </c>
       <c r="R3">
-        <v>21.81712044491648</v>
+        <v>209.806730330115</v>
       </c>
       <c r="S3">
-        <v>0.00695929008178266</v>
+        <v>0.006645446312016298</v>
       </c>
       <c r="T3">
-        <v>0.00695929008178266</v>
+        <v>0.006645446312016298</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H4">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I4">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J4">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.952391284025677</v>
+        <v>0.9803886666666667</v>
       </c>
       <c r="N4">
-        <v>0.952391284025677</v>
+        <v>2.941166</v>
       </c>
       <c r="O4">
-        <v>0.1899872386574877</v>
+        <v>0.1764347048172834</v>
       </c>
       <c r="P4">
-        <v>0.1899872386574877</v>
+        <v>0.1764347048172834</v>
       </c>
       <c r="Q4">
-        <v>185.3776997994204</v>
+        <v>191.6026404411913</v>
       </c>
       <c r="R4">
-        <v>185.3776997994204</v>
+        <v>1724.423763970722</v>
       </c>
       <c r="S4">
-        <v>0.05913233099918051</v>
+        <v>0.05461962790517606</v>
       </c>
       <c r="T4">
-        <v>0.05913233099918051</v>
+        <v>0.05461962790517607</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H5">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I5">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J5">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.38459896335159</v>
+        <v>2.839038333333333</v>
       </c>
       <c r="N5">
-        <v>2.38459896335159</v>
+        <v>8.517115</v>
       </c>
       <c r="O5">
-        <v>0.4756903805730985</v>
+        <v>0.5109248070050642</v>
       </c>
       <c r="P5">
-        <v>0.4756903805730985</v>
+        <v>0.5109248070050643</v>
       </c>
       <c r="Q5">
-        <v>464.1490091149156</v>
+        <v>554.8485610609116</v>
       </c>
       <c r="R5">
-        <v>464.1490091149156</v>
+        <v>4993.637049548205</v>
       </c>
       <c r="S5">
-        <v>0.1480556338201509</v>
+        <v>0.1581691248047861</v>
       </c>
       <c r="T5">
-        <v>0.1480556338201509</v>
+        <v>0.1581691248047861</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H6">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I6">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J6">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.244475803823446</v>
+        <v>0.271378</v>
       </c>
       <c r="N6">
-        <v>0.244475803823446</v>
+        <v>0.814134</v>
       </c>
       <c r="O6">
-        <v>0.04876911797287503</v>
+        <v>0.04883828113466367</v>
       </c>
       <c r="P6">
-        <v>0.04876911797287503</v>
+        <v>0.04883828113466368</v>
       </c>
       <c r="Q6">
-        <v>47.5858640556216</v>
+        <v>53.036864996042</v>
       </c>
       <c r="R6">
-        <v>47.5858640556216</v>
+        <v>477.331784964378</v>
       </c>
       <c r="S6">
-        <v>0.01517908069451523</v>
+        <v>0.01511907051317491</v>
       </c>
       <c r="T6">
-        <v>0.01517908069451523</v>
+        <v>0.01511907051317492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H7">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J7">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31936931933056</v>
+        <v>1.346579</v>
       </c>
       <c r="N7">
-        <v>1.31936931933056</v>
+        <v>4.039737</v>
       </c>
       <c r="O7">
-        <v>0.2631936452520749</v>
+        <v>0.2423357964611511</v>
       </c>
       <c r="P7">
-        <v>0.2631936452520749</v>
+        <v>0.2423357964611511</v>
       </c>
       <c r="Q7">
-        <v>105.2425746762297</v>
+        <v>107.4937020686273</v>
       </c>
       <c r="R7">
-        <v>105.2425746762297</v>
+        <v>967.4433186176459</v>
       </c>
       <c r="S7">
-        <v>0.03357059003156455</v>
+        <v>0.03064292848793151</v>
       </c>
       <c r="T7">
-        <v>0.03357059003156455</v>
+        <v>0.03064292848793151</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H8">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J8">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.112087027602345</v>
+        <v>0.1192816666666667</v>
       </c>
       <c r="N8">
-        <v>0.112087027602345</v>
+        <v>0.357845</v>
       </c>
       <c r="O8">
-        <v>0.022359617544464</v>
+        <v>0.02146641058183753</v>
       </c>
       <c r="P8">
-        <v>0.022359617544464</v>
+        <v>0.02146641058183754</v>
       </c>
       <c r="Q8">
-        <v>8.940883496261531</v>
+        <v>9.521927743501111</v>
       </c>
       <c r="R8">
-        <v>8.940883496261531</v>
+        <v>85.69734969150998</v>
       </c>
       <c r="S8">
-        <v>0.002851989656242893</v>
+        <v>0.002714389264638726</v>
       </c>
       <c r="T8">
-        <v>0.002851989656242893</v>
+        <v>0.002714389264638725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H9">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J9">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.952391284025677</v>
+        <v>0.9803886666666667</v>
       </c>
       <c r="N9">
-        <v>0.952391284025677</v>
+        <v>2.941166</v>
       </c>
       <c r="O9">
-        <v>0.1899872386574877</v>
+        <v>0.1764347048172834</v>
       </c>
       <c r="P9">
-        <v>0.1899872386574877</v>
+        <v>0.1764347048172834</v>
       </c>
       <c r="Q9">
-        <v>75.96971474288925</v>
+        <v>78.26173380553645</v>
       </c>
       <c r="R9">
-        <v>75.96971474288925</v>
+        <v>704.3556042498279</v>
       </c>
       <c r="S9">
-        <v>0.02423304595401985</v>
+        <v>0.02230985319319935</v>
       </c>
       <c r="T9">
-        <v>0.02423304595401985</v>
+        <v>0.02230985319319935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H10">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J10">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.38459896335159</v>
+        <v>2.839038333333333</v>
       </c>
       <c r="N10">
-        <v>2.38459896335159</v>
+        <v>8.517115</v>
       </c>
       <c r="O10">
-        <v>0.4756903805730985</v>
+        <v>0.5109248070050642</v>
       </c>
       <c r="P10">
-        <v>0.4756903805730985</v>
+        <v>0.5109248070050643</v>
       </c>
       <c r="Q10">
-        <v>190.2131046981795</v>
+        <v>226.6326303653522</v>
       </c>
       <c r="R10">
-        <v>190.2131046981795</v>
+        <v>2039.69367328817</v>
       </c>
       <c r="S10">
-        <v>0.0606747428604662</v>
+        <v>0.06460552899074587</v>
       </c>
       <c r="T10">
-        <v>0.0606747428604662</v>
+        <v>0.06460552899074587</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>79.76733514587799</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H11">
-        <v>79.76733514587799</v>
+        <v>239.481758</v>
       </c>
       <c r="I11">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J11">
-        <v>0.1275509140785377</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.244475803823446</v>
+        <v>0.271378</v>
       </c>
       <c r="N11">
-        <v>0.244475803823446</v>
+        <v>0.814134</v>
       </c>
       <c r="O11">
-        <v>0.04876911797287503</v>
+        <v>0.04883828113466367</v>
       </c>
       <c r="P11">
-        <v>0.04876911797287503</v>
+        <v>0.04883828113466368</v>
       </c>
       <c r="Q11">
-        <v>19.50118337864274</v>
+        <v>21.66336017417467</v>
       </c>
       <c r="R11">
-        <v>19.50118337864274</v>
+        <v>194.970241567572</v>
       </c>
       <c r="S11">
-        <v>0.006220545576244253</v>
+        <v>0.006175513391489008</v>
       </c>
       <c r="T11">
-        <v>0.006220545576244253</v>
+        <v>0.006175513391489008</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H12">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I12">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J12">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.31936931933056</v>
+        <v>1.346579</v>
       </c>
       <c r="N12">
-        <v>1.31936931933056</v>
+        <v>4.039737</v>
       </c>
       <c r="O12">
-        <v>0.2631936452520749</v>
+        <v>0.2423357964611511</v>
       </c>
       <c r="P12">
-        <v>0.2631936452520749</v>
+        <v>0.2423357964611511</v>
       </c>
       <c r="Q12">
-        <v>214.0267244742233</v>
+        <v>218.8347854691223</v>
       </c>
       <c r="R12">
-        <v>214.0267244742233</v>
+        <v>1969.513069222101</v>
       </c>
       <c r="S12">
-        <v>0.06827088224729258</v>
+        <v>0.06238261919308533</v>
       </c>
       <c r="T12">
-        <v>0.06827088224729258</v>
+        <v>0.06238261919308534</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H13">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I13">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J13">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.112087027602345</v>
+        <v>0.1192816666666667</v>
       </c>
       <c r="N13">
-        <v>0.112087027602345</v>
+        <v>0.357845</v>
       </c>
       <c r="O13">
-        <v>0.022359617544464</v>
+        <v>0.02146641058183753</v>
       </c>
       <c r="P13">
-        <v>0.022359617544464</v>
+        <v>0.02146641058183754</v>
       </c>
       <c r="Q13">
-        <v>18.1826415259936</v>
+        <v>19.38466137924278</v>
       </c>
       <c r="R13">
-        <v>18.1826415259936</v>
+        <v>174.461952413185</v>
       </c>
       <c r="S13">
-        <v>0.005799953167602418</v>
+        <v>0.005525931110156335</v>
       </c>
       <c r="T13">
-        <v>0.005799953167602418</v>
+        <v>0.005525931110156336</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H14">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I14">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J14">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.952391284025677</v>
+        <v>0.9803886666666667</v>
       </c>
       <c r="N14">
-        <v>0.952391284025677</v>
+        <v>2.941166</v>
       </c>
       <c r="O14">
-        <v>0.1899872386574877</v>
+        <v>0.1764347048172834</v>
       </c>
       <c r="P14">
-        <v>0.1899872386574877</v>
+        <v>0.1764347048172834</v>
       </c>
       <c r="Q14">
-        <v>154.4959276764455</v>
+        <v>159.3245873776131</v>
       </c>
       <c r="R14">
-        <v>154.4959276764455</v>
+        <v>1433.921286398518</v>
       </c>
       <c r="S14">
-        <v>0.04928157131776857</v>
+        <v>0.04541821375046198</v>
       </c>
       <c r="T14">
-        <v>0.04928157131776857</v>
+        <v>0.04541821375046199</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H15">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I15">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J15">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.38459896335159</v>
+        <v>2.839038333333333</v>
       </c>
       <c r="N15">
-        <v>2.38459896335159</v>
+        <v>8.517115</v>
       </c>
       <c r="O15">
-        <v>0.4756903805730985</v>
+        <v>0.5109248070050642</v>
       </c>
       <c r="P15">
-        <v>0.4756903805730985</v>
+        <v>0.5109248070050643</v>
       </c>
       <c r="Q15">
-        <v>386.8271740392802</v>
+        <v>461.3768257292105</v>
       </c>
       <c r="R15">
-        <v>386.8271740392802</v>
+        <v>4152.391431562895</v>
       </c>
       <c r="S15">
-        <v>0.1233912844938636</v>
+        <v>0.1315233990897712</v>
       </c>
       <c r="T15">
-        <v>0.1233912844938636</v>
+        <v>0.1315233990897712</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>162.218964272126</v>
+        <v>162.5116576666667</v>
       </c>
       <c r="H16">
-        <v>162.218964272126</v>
+        <v>487.534973</v>
       </c>
       <c r="I16">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="J16">
-        <v>0.2593941133415505</v>
+        <v>0.2574222219914007</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.244475803823446</v>
+        <v>0.271378</v>
       </c>
       <c r="N16">
-        <v>0.244475803823446</v>
+        <v>0.814134</v>
       </c>
       <c r="O16">
-        <v>0.04876911797287503</v>
+        <v>0.04883828113466367</v>
       </c>
       <c r="P16">
-        <v>0.04876911797287503</v>
+        <v>0.04883828113466368</v>
       </c>
       <c r="Q16">
-        <v>39.65861168583487</v>
+        <v>44.10208863426466</v>
       </c>
       <c r="R16">
-        <v>39.65861168583487</v>
+        <v>396.918797708382</v>
       </c>
       <c r="S16">
-        <v>0.0126504221150234</v>
+        <v>0.01257205884792583</v>
       </c>
       <c r="T16">
-        <v>0.0126504221150234</v>
+        <v>0.01257205884792583</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H17">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I17">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J17">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.31936931933056</v>
+        <v>1.346579</v>
       </c>
       <c r="N17">
-        <v>1.31936931933056</v>
+        <v>4.039737</v>
       </c>
       <c r="O17">
-        <v>0.2631936452520749</v>
+        <v>0.2423357964611511</v>
       </c>
       <c r="P17">
-        <v>0.2631936452520749</v>
+        <v>0.2423357964611511</v>
       </c>
       <c r="Q17">
-        <v>209.294703788161</v>
+        <v>215.1712606475987</v>
       </c>
       <c r="R17">
-        <v>209.294703788161</v>
+        <v>1936.541345828388</v>
       </c>
       <c r="S17">
-        <v>0.06676144819019743</v>
+        <v>0.06133826843616343</v>
       </c>
       <c r="T17">
-        <v>0.06676144819019743</v>
+        <v>0.06133826843616343</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H18">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I18">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J18">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.112087027602345</v>
+        <v>0.1192816666666667</v>
       </c>
       <c r="N18">
-        <v>0.112087027602345</v>
+        <v>0.357845</v>
       </c>
       <c r="O18">
-        <v>0.022359617544464</v>
+        <v>0.02146641058183753</v>
       </c>
       <c r="P18">
-        <v>0.022359617544464</v>
+        <v>0.02146641058183754</v>
       </c>
       <c r="Q18">
-        <v>17.78063268322117</v>
+        <v>19.06014172864223</v>
       </c>
       <c r="R18">
-        <v>17.78063268322117</v>
+        <v>171.54127555778</v>
       </c>
       <c r="S18">
-        <v>0.005671719189183556</v>
+        <v>0.005433421202553261</v>
       </c>
       <c r="T18">
-        <v>0.005671719189183556</v>
+        <v>0.005433421202553261</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H19">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I19">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J19">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.952391284025677</v>
+        <v>0.9803886666666667</v>
       </c>
       <c r="N19">
-        <v>0.952391284025677</v>
+        <v>2.941166</v>
       </c>
       <c r="O19">
-        <v>0.1899872386574877</v>
+        <v>0.1764347048172834</v>
       </c>
       <c r="P19">
-        <v>0.1899872386574877</v>
+        <v>0.1764347048172834</v>
       </c>
       <c r="Q19">
-        <v>151.080102258039</v>
+        <v>156.6573259580649</v>
       </c>
       <c r="R19">
-        <v>151.080102258039</v>
+        <v>1409.915933622584</v>
       </c>
       <c r="S19">
-        <v>0.04819198114864266</v>
+        <v>0.04465786501035018</v>
       </c>
       <c r="T19">
-        <v>0.04819198114864266</v>
+        <v>0.04465786501035019</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H20">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I20">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J20">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.38459896335159</v>
+        <v>2.839038333333333</v>
       </c>
       <c r="N20">
-        <v>2.38459896335159</v>
+        <v>8.517115</v>
       </c>
       <c r="O20">
-        <v>0.4756903805730985</v>
+        <v>0.5109248070050642</v>
       </c>
       <c r="P20">
-        <v>0.4756903805730985</v>
+        <v>0.5109248070050643</v>
       </c>
       <c r="Q20">
-        <v>378.274624379972</v>
+        <v>453.6528916685845</v>
       </c>
       <c r="R20">
-        <v>378.274624379972</v>
+        <v>4082.876025017261</v>
       </c>
       <c r="S20">
-        <v>0.1206631667219399</v>
+        <v>0.1293215588469433</v>
       </c>
       <c r="T20">
-        <v>0.1206631667219399</v>
+        <v>0.1293215588469433</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>158.632386490809</v>
+        <v>159.7910413333334</v>
       </c>
       <c r="H21">
-        <v>158.632386490809</v>
+        <v>479.3731240000001</v>
       </c>
       <c r="I21">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="J21">
-        <v>0.2536590430451174</v>
+        <v>0.2531127028358626</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.244475803823446</v>
+        <v>0.271378</v>
       </c>
       <c r="N21">
-        <v>0.244475803823446</v>
+        <v>0.814134</v>
       </c>
       <c r="O21">
-        <v>0.04876911797287503</v>
+        <v>0.04883828113466367</v>
       </c>
       <c r="P21">
-        <v>0.04876911797287503</v>
+        <v>0.04883828113466368</v>
       </c>
       <c r="Q21">
-        <v>38.78178019977209</v>
+        <v>43.36377321495734</v>
       </c>
       <c r="R21">
-        <v>38.78178019977209</v>
+        <v>390.2739589346161</v>
       </c>
       <c r="S21">
-        <v>0.01237072779515391</v>
+        <v>0.01236158933985244</v>
       </c>
       <c r="T21">
-        <v>0.01237072779515391</v>
+        <v>0.01236158933985244</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H22">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I22">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J22">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.31936931933056</v>
+        <v>1.346579</v>
       </c>
       <c r="N22">
-        <v>1.31936931933056</v>
+        <v>4.039737</v>
       </c>
       <c r="O22">
-        <v>0.2631936452520749</v>
+        <v>0.2423357964611511</v>
       </c>
       <c r="P22">
-        <v>0.2631936452520749</v>
+        <v>0.2423357964611511</v>
       </c>
       <c r="Q22">
-        <v>39.73052417575696</v>
+        <v>45.43166152238133</v>
       </c>
       <c r="R22">
-        <v>39.73052417575696</v>
+        <v>408.8849537014319</v>
       </c>
       <c r="S22">
-        <v>0.01267336097531592</v>
+        <v>0.01295107646613048</v>
       </c>
       <c r="T22">
-        <v>0.01267336097531592</v>
+        <v>0.01295107646613048</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H23">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I23">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J23">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.112087027602345</v>
+        <v>0.1192816666666667</v>
       </c>
       <c r="N23">
-        <v>0.112087027602345</v>
+        <v>0.357845</v>
       </c>
       <c r="O23">
-        <v>0.022359617544464</v>
+        <v>0.02146641058183753</v>
       </c>
       <c r="P23">
-        <v>0.022359617544464</v>
+        <v>0.02146641058183754</v>
       </c>
       <c r="Q23">
-        <v>3.375306894511744</v>
+        <v>4.024393894324444</v>
       </c>
       <c r="R23">
-        <v>3.375306894511744</v>
+        <v>36.21954504892</v>
       </c>
       <c r="S23">
-        <v>0.001076665449652475</v>
+        <v>0.001147222692472916</v>
       </c>
       <c r="T23">
-        <v>0.001076665449652475</v>
+        <v>0.001147222692472916</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H24">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I24">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J24">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.952391284025677</v>
+        <v>0.9803886666666667</v>
       </c>
       <c r="N24">
-        <v>0.952391284025677</v>
+        <v>2.941166</v>
       </c>
       <c r="O24">
-        <v>0.1899872386574877</v>
+        <v>0.1764347048172834</v>
       </c>
       <c r="P24">
-        <v>0.1899872386574877</v>
+        <v>0.1764347048172834</v>
       </c>
       <c r="Q24">
-        <v>28.67961561662026</v>
+        <v>33.07692015424178</v>
       </c>
       <c r="R24">
-        <v>28.67961561662026</v>
+        <v>297.692281388176</v>
       </c>
       <c r="S24">
-        <v>0.009148309237876077</v>
+        <v>0.009429144958095815</v>
       </c>
       <c r="T24">
-        <v>0.009148309237876077</v>
+        <v>0.009429144958095817</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H25">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I25">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J25">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.38459896335159</v>
+        <v>2.839038333333333</v>
       </c>
       <c r="N25">
-        <v>2.38459896335159</v>
+        <v>8.517115</v>
       </c>
       <c r="O25">
-        <v>0.4756903805730985</v>
+        <v>0.5109248070050642</v>
       </c>
       <c r="P25">
-        <v>0.4756903805730985</v>
+        <v>0.5109248070050643</v>
       </c>
       <c r="Q25">
-        <v>71.80807176189039</v>
+        <v>95.78511814684887</v>
       </c>
       <c r="R25">
-        <v>71.80807176189039</v>
+        <v>862.0660633216399</v>
       </c>
       <c r="S25">
-        <v>0.02290555267667792</v>
+        <v>0.02730519527281773</v>
       </c>
       <c r="T25">
-        <v>0.02290555267667792</v>
+        <v>0.02730519527281773</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>30.1132697218668</v>
+        <v>33.73857866666666</v>
       </c>
       <c r="H26">
-        <v>30.1132697218668</v>
+        <v>101.215736</v>
       </c>
       <c r="I26">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173843</v>
       </c>
       <c r="J26">
-        <v>0.04815223013146062</v>
+        <v>0.05344268843173842</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.244475803823446</v>
+        <v>0.271378</v>
       </c>
       <c r="N26">
-        <v>0.244475803823446</v>
+        <v>0.814134</v>
       </c>
       <c r="O26">
-        <v>0.04876911797287503</v>
+        <v>0.04883828113466367</v>
       </c>
       <c r="P26">
-        <v>0.04876911797287503</v>
+        <v>0.04883828113466368</v>
       </c>
       <c r="Q26">
-        <v>7.361965821005624</v>
+        <v>9.155908001402665</v>
       </c>
       <c r="R26">
-        <v>7.361965821005624</v>
+        <v>82.403172012624</v>
       </c>
       <c r="S26">
-        <v>0.002348341791938231</v>
+        <v>0.002610049042221479</v>
       </c>
       <c r="T26">
-        <v>0.002348341791938231</v>
+        <v>0.002610049042221479</v>
       </c>
     </row>
   </sheetData>
